--- a/data-raw/OARSA – Principaux indicateurs de 2015 à 2018.xlsx
+++ b/data-raw/OARSA – Principaux indicateurs de 2015 à 2018.xlsx
@@ -1507,7 +1507,8 @@
       <c r="F4" s="6"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" s="5" customFormat="true" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5"/>
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
@@ -1516,16 +1517,9 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5"/>
       <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
@@ -1534,32 +1528,13 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" s="5" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
@@ -1568,16 +1543,9 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" s="5" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
@@ -1586,16 +1554,9 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -1611,7 +1572,8 @@
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
     </row>
-    <row r="11" s="5" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1620,16 +1582,9 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" s="5" customFormat="true" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5"/>
       <c r="B12" s="13" t="s">
         <v>7</v>
       </c>
@@ -1638,30 +1593,10 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
@@ -30901,7 +30836,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="1.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="33" width="64.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="33" width="104.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="34" width="23.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="34" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="8" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="8" width="11.42"/>
   </cols>
